--- a/Data/CN_Policy/Yuhang_data/V0-Yuhang_Pan-CN_lockdown_data.xlsx
+++ b/Data/CN_Policy/Yuhang_data/V0-Yuhang_Pan-CN_lockdown_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qitianhu/Documents/Research/Explore/COVID-19_sosc/CN_Provinces/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qitianhu/Documents/Research/Explore/COVID-19_sosc/Data/CN_Policy/Yuhang_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED692C3-3B14-6D45-92C9-413D3FD03C55}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C8E1D9-2CE3-3742-8DBB-8827C7B86846}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="25600" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18800" yWindow="0" windowWidth="10000" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1040,14 +1040,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="159" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
